--- a/biology/Médecine/Kei_Okami/Kei_Okami.xlsx
+++ b/biology/Médecine/Kei_Okami/Kei_Okami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kei Okami (岡見 京, Okami Kei?, 11 septembre 1859[1],[2] – 2 septembre 1941[1]) est une femme médecin japonaise, connue pour être la première Japonaise diplômée de médecine occidentale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kei Okami (岡見 京, Okami Kei?, 11 septembre 1859, – 2 septembre 1941) est une femme médecin japonaise, connue pour être la première Japonaise diplômée de médecine occidentale.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1889, Kei Okami est la première Japonaise diplômée en médecine occidentale[3]. Elle-même chrétienne, elle avait reçu de l'aide de la Women's Foreign Missionary Society de l'Église presbytérienne pour étudier au Woman's Medical College of Pennsylvania.
-De retour au Japon, elle travaille à l'hôpital de Jikei (de nos jours, l'école universitaire de médecine de Jikei (en)), à l'invitation de Takaki Kanehiro. Puis, elle ouvre sa propre clinique, travaillant à domicile dans le quartier Akasaka Tameike, Minato[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1889, Kei Okami est la première Japonaise diplômée en médecine occidentale. Elle-même chrétienne, elle avait reçu de l'aide de la Women's Foreign Missionary Society de l'Église presbytérienne pour étudier au Woman's Medical College of Pennsylvania.
+De retour au Japon, elle travaille à l'hôpital de Jikei (de nos jours, l'école universitaire de médecine de Jikei (en)), à l'invitation de Takaki Kanehiro. Puis, elle ouvre sa propre clinique, travaillant à domicile dans le quartier Akasaka Tameike, Minato.
 </t>
         </is>
       </c>
